--- a/Charts/Comparison Charts.xlsx
+++ b/Charts/Comparison Charts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="1400" yWindow="5660" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
   <si>
     <t>Coal</t>
   </si>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>Hydroelectric Energy Production</t>
+  </si>
+  <si>
+    <t>Renewable energy Production</t>
+  </si>
+  <si>
+    <t>Total Energy Production</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Renewable Energy Consumption</t>
+  </si>
+  <si>
+    <t>Total Energy Consumption</t>
   </si>
 </sst>
 </file>
@@ -168,7 +183,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1565,11 +1579,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1818763344"/>
-        <c:axId val="1818835936"/>
+        <c:axId val="2141882016"/>
+        <c:axId val="-2091041840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1818763344"/>
+        <c:axId val="2141882016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,7 +1626,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1818835936"/>
+        <c:crossAx val="-2091041840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1620,7 +1634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1818835936"/>
+        <c:axId val="-2091041840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1666,6 +1680,734 @@
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
                   <a:t> Consumption Divide by Total Consumption</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2141882016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Renewable</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Energy Production Ratio</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Arizona</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$508:$A$517</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$508:$B$517</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.34062110189511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.25149134738493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.62385002354937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.05055659296268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.50283381225062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.86610273313732</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.91132657402389</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.59145750904771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.81322908152663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.51178774209351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>California</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$508:$A$517</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$508:$C$517</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>22.54826745620429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.90143312753611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.82581134090958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.45659605784523</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.89989326004561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.01942592543765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.83593834073297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.01886465179587</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.66017686016213</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.37567572669202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>New Mexico</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$508:$A$517</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$508:$D$517</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.341235070936948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.289691248680536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32124843107165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.357500038486989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.452426009552633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.876552711442555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.118080391689467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.303575457379051</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.423395598280093</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.400584841745854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Texas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$508:$A$517</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$508:$E$517</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.854761081765533</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.862351016860637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.113878421289297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.061933746030887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.11888129558583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.269865379215523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.38820285730064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.69057952926006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.472400727161743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.54886400505866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2141213040"/>
+        <c:axId val="-2070108592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2141213040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2070108592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2070108592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Renewable</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Energy Production Divided by Total Energy Production</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1732,7 +2474,737 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1818763344"/>
+        <c:crossAx val="2141213040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Non-renewable</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Energy Consumption Ratio</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Arizona</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$548:$A$557</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$548:$B$557</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>92.30366031007503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.06000027307455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.45318486206844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.75483293346609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.2171327206545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.74557724494188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.72231207148789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.75869480839858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.74018503549985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.88370159116255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>California</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$548:$A$557</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$548:$C$557</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>90.70269325365588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.3034098452208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.47857053363866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.55758596990976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.76959015066454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.16831365233241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.32529768165359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.63552695891481</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.8349410254967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.09733158129566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>New Mexico</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$548:$A$557</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$548:$D$557</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>98.4161595146452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.80695141478485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.74970894305282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.65397788395076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.2776399292678</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.54632570696161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.87154453013989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.54248911614202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.82879706108641</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.68203613525401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Texas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$548:$A$557</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$548:$E$557</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>99.15576593958704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.14089084725042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.98043542052639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.01575562077768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.97802951368188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.7963165428187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.4125551792531</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.96214734184856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.05469506968832</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.84321625952343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2078313424"/>
+        <c:axId val="-2075233056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2078313424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2075233056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2075233056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Non-renewable Energy Consumed Divided by Total Energy Consumed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2078313424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1858,7 +3330,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3255,11 +4726,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1768151664"/>
-        <c:axId val="1761095536"/>
+        <c:axId val="-2094120848"/>
+        <c:axId val="-2094103504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1768151664"/>
+        <c:axId val="-2094120848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3302,7 +4773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1761095536"/>
+        <c:crossAx val="-2094103504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3310,7 +4781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1761095536"/>
+        <c:axId val="-2094103504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3361,7 +4832,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3422,7 +4892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1768151664"/>
+        <c:crossAx val="-2094120848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3436,7 +4906,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3543,7 +5012,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4940,11 +6408,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1773018736"/>
-        <c:axId val="1765156528"/>
+        <c:axId val="-2095735120"/>
+        <c:axId val="2144190704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1773018736"/>
+        <c:axId val="-2095735120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4987,7 +6455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1765156528"/>
+        <c:crossAx val="2144190704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4995,7 +6463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1765156528"/>
+        <c:axId val="2144190704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5041,7 +6509,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5102,7 +6569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1773018736"/>
+        <c:crossAx val="-2095735120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5116,7 +6583,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5228,7 +6694,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6625,11 +8090,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2137554320"/>
-        <c:axId val="-2084418832"/>
+        <c:axId val="-2092398544"/>
+        <c:axId val="2144285024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2137554320"/>
+        <c:axId val="-2092398544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6672,7 +8137,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084418832"/>
+        <c:crossAx val="2144285024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6680,7 +8145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2084418832"/>
+        <c:axId val="2144285024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6726,7 +8191,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6787,7 +8251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137554320"/>
+        <c:crossAx val="-2092398544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6801,7 +8265,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6908,7 +8371,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8305,11 +9767,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1886109856"/>
-        <c:axId val="1883492464"/>
+        <c:axId val="2142039600"/>
+        <c:axId val="2142041792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1886109856"/>
+        <c:axId val="2142039600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8352,7 +9814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1883492464"/>
+        <c:crossAx val="2142041792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8360,7 +9822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1883492464"/>
+        <c:axId val="2142041792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8406,7 +9868,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8467,7 +9928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1886109856"/>
+        <c:crossAx val="2142039600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8481,7 +9942,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8588,7 +10048,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9985,11 +11444,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1897847376"/>
-        <c:axId val="1897684448"/>
+        <c:axId val="2141921200"/>
+        <c:axId val="2142024960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1897847376"/>
+        <c:axId val="2141921200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10032,7 +11491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1897684448"/>
+        <c:crossAx val="2142024960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10040,7 +11499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1897684448"/>
+        <c:axId val="2142024960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10086,7 +11545,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10147,7 +11605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1897847376"/>
+        <c:crossAx val="2141921200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10161,7 +11619,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10273,7 +11730,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11670,11 +13126,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1905710896"/>
-        <c:axId val="1905710496"/>
+        <c:axId val="-2118092960"/>
+        <c:axId val="-2118096368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1905710896"/>
+        <c:axId val="-2118092960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11717,7 +13173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1905710496"/>
+        <c:crossAx val="-2118096368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11725,7 +13181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1905710496"/>
+        <c:axId val="-2118096368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11776,7 +13232,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11837,7 +13292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1905710896"/>
+        <c:crossAx val="-2118092960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11851,7 +13306,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11963,7 +13417,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13360,11 +14813,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1906438912"/>
-        <c:axId val="1907637648"/>
+        <c:axId val="-2094863792"/>
+        <c:axId val="-2094860432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1906438912"/>
+        <c:axId val="-2094863792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13407,7 +14860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1907637648"/>
+        <c:crossAx val="-2094860432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13415,7 +14868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1907637648"/>
+        <c:axId val="-2094860432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13466,7 +14919,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13527,7 +14979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1906438912"/>
+        <c:crossAx val="-2094863792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13541,7 +14993,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15045,11 +16496,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1900961776"/>
-        <c:axId val="1917490496"/>
+        <c:axId val="-2091844656"/>
+        <c:axId val="-2090555296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1900961776"/>
+        <c:axId val="-2091844656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15092,7 +16543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1917490496"/>
+        <c:crossAx val="-2090555296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15100,7 +16551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1917490496"/>
+        <c:axId val="-2090555296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15212,7 +16663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1900961776"/>
+        <c:crossAx val="-2091844656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15294,6 +16745,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16169,6 +17700,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -20569,6 +23132,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292878</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>53909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>764592</xdr:colOff>
+      <xdr:row>515</xdr:row>
+      <xdr:rowOff>77755</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279919</xdr:colOff>
+      <xdr:row>517</xdr:row>
+      <xdr:rowOff>2072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>738673</xdr:colOff>
+      <xdr:row>547</xdr:row>
+      <xdr:rowOff>142550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20835,10 +23458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E477"/>
+  <dimension ref="A1:E557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C425" sqref="C425"/>
+    <sheetView tabSelected="1" topLeftCell="C515" zoomScale="98" workbookViewId="0">
+      <selection activeCell="S529" sqref="S529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28695,6 +31318,1238 @@
         <v>10039.695250000001</v>
       </c>
     </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>8</v>
+      </c>
+      <c r="B481" t="s">
+        <v>2</v>
+      </c>
+      <c r="C481" t="s">
+        <v>3</v>
+      </c>
+      <c r="D481" t="s">
+        <v>4</v>
+      </c>
+      <c r="E481" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B482">
+        <v>101173.02899999999</v>
+      </c>
+      <c r="C482">
+        <v>737522.91819999996</v>
+      </c>
+      <c r="D482">
+        <v>9310.2129600000007</v>
+      </c>
+      <c r="E482">
+        <v>96346.138359999997</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B483">
+        <v>90726.103409999996</v>
+      </c>
+      <c r="C483">
+        <v>608143.35190000001</v>
+      </c>
+      <c r="D483">
+        <v>8053.5927499999998</v>
+      </c>
+      <c r="E483">
+        <v>96563.349600000001</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B484">
+        <v>87119.080040000001</v>
+      </c>
+      <c r="C484">
+        <v>676324.80870000005</v>
+      </c>
+      <c r="D484">
+        <v>8718.53593</v>
+      </c>
+      <c r="E484">
+        <v>121061.9406</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B485">
+        <v>84174.631389999995</v>
+      </c>
+      <c r="C485">
+        <v>725742.02080000006</v>
+      </c>
+      <c r="D485">
+        <v>9628.8264999999992</v>
+      </c>
+      <c r="E485">
+        <v>115899.60950000001</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B486">
+        <v>81735.554969999997</v>
+      </c>
+      <c r="C486">
+        <v>697820.3088</v>
+      </c>
+      <c r="D486">
+        <v>12366.599469999999</v>
+      </c>
+      <c r="E486">
+        <v>120886.6667</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B487">
+        <v>78743.841690000001</v>
+      </c>
+      <c r="C487">
+        <v>741050.65269999998</v>
+      </c>
+      <c r="D487">
+        <v>24106.545450000001</v>
+      </c>
+      <c r="E487">
+        <v>137564.5865</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B488">
+        <v>81533.37169</v>
+      </c>
+      <c r="C488">
+        <v>822410.12379999994</v>
+      </c>
+      <c r="D488">
+        <v>29641.458200000001</v>
+      </c>
+      <c r="E488">
+        <v>152714.63029999999</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B489">
+        <v>84167.978860000003</v>
+      </c>
+      <c r="C489">
+        <v>632367.50910000002</v>
+      </c>
+      <c r="D489">
+        <v>33024.11335</v>
+      </c>
+      <c r="E489">
+        <v>192261.41630000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B490">
+        <v>97134.517420000004</v>
+      </c>
+      <c r="C490">
+        <v>602233.04639999999</v>
+      </c>
+      <c r="D490">
+        <v>35036.036870000004</v>
+      </c>
+      <c r="E490">
+        <v>298182.5907</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B491">
+        <v>88571.384420000002</v>
+      </c>
+      <c r="C491">
+        <v>635062.36529999995</v>
+      </c>
+      <c r="D491">
+        <v>33785.174350000001</v>
+      </c>
+      <c r="E491">
+        <v>303697.0626</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>8</v>
+      </c>
+      <c r="B494" t="s">
+        <v>2</v>
+      </c>
+      <c r="C494" t="s">
+        <v>3</v>
+      </c>
+      <c r="D494" t="s">
+        <v>4</v>
+      </c>
+      <c r="E494" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B495">
+        <v>705499.63130000001</v>
+      </c>
+      <c r="C495">
+        <v>3270862.915</v>
+      </c>
+      <c r="D495">
+        <v>2728386.8960000002</v>
+      </c>
+      <c r="E495">
+        <v>11271703.92</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B496">
+        <v>684648.24849999999</v>
+      </c>
+      <c r="C496">
+        <v>3055776.6770000001</v>
+      </c>
+      <c r="D496">
+        <v>2780060.767</v>
+      </c>
+      <c r="E496">
+        <v>11197684.9</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B497">
+        <v>690114.97979999997</v>
+      </c>
+      <c r="C497">
+        <v>3098738.4530000002</v>
+      </c>
+      <c r="D497">
+        <v>2713954.4</v>
+      </c>
+      <c r="E497">
+        <v>10868505.779999999</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B498">
+        <v>644988.82319999998</v>
+      </c>
+      <c r="C498">
+        <v>3093978.423</v>
+      </c>
+      <c r="D498">
+        <v>2693377.7519999999</v>
+      </c>
+      <c r="E498">
+        <v>10914015.109999999</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B499">
+        <v>653736.23450000002</v>
+      </c>
+      <c r="C499">
+        <v>2919763.2859999998</v>
+      </c>
+      <c r="D499">
+        <v>2733397.11</v>
+      </c>
+      <c r="E499">
+        <v>10804244.130000001</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B500">
+        <v>612025.59409999999</v>
+      </c>
+      <c r="C500">
+        <v>2961901.1039999998</v>
+      </c>
+      <c r="D500">
+        <v>2750153.5430000001</v>
+      </c>
+      <c r="E500">
+        <v>10833005.51</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B501">
+        <v>512423.46960000001</v>
+      </c>
+      <c r="C501">
+        <v>2954490.392</v>
+      </c>
+      <c r="D501">
+        <v>2651102.588</v>
+      </c>
+      <c r="E501">
+        <v>11000887.189999999</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B502">
+        <v>539833.93669999996</v>
+      </c>
+      <c r="C502">
+        <v>2747170.7170000002</v>
+      </c>
+      <c r="D502">
+        <v>2533348.8110000002</v>
+      </c>
+      <c r="E502">
+        <v>11372515.34</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B503">
+        <v>577726.72309999994</v>
+      </c>
+      <c r="C503">
+        <v>2657671.4300000002</v>
+      </c>
+      <c r="D503">
+        <v>2461440.58</v>
+      </c>
+      <c r="E503">
+        <v>12060447.460000001</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B504">
+        <v>570994.04590000003</v>
+      </c>
+      <c r="C504">
+        <v>2605311.838</v>
+      </c>
+      <c r="D504">
+        <v>2412219.0490000001</v>
+      </c>
+      <c r="E504">
+        <v>11914996.720000001</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>8</v>
+      </c>
+      <c r="B507" t="s">
+        <v>2</v>
+      </c>
+      <c r="C507" t="s">
+        <v>3</v>
+      </c>
+      <c r="D507" t="s">
+        <v>4</v>
+      </c>
+      <c r="E507" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B508">
+        <f>B482/B495*100</f>
+        <v>14.34062110189511</v>
+      </c>
+      <c r="C508">
+        <f>C482/C495*100</f>
+        <v>22.54826745620429</v>
+      </c>
+      <c r="D508">
+        <f>D482/D495*100</f>
+        <v>0.34123507093694821</v>
+      </c>
+      <c r="E508">
+        <f>E482/E495*100</f>
+        <v>0.85476108176553312</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B509">
+        <f t="shared" ref="B509:E509" si="0">B483/B496*100</f>
+        <v>13.251491347384933</v>
+      </c>
+      <c r="C509">
+        <f t="shared" si="0"/>
+        <v>19.901433127536105</v>
+      </c>
+      <c r="D509">
+        <f t="shared" si="0"/>
+        <v>0.28969124868053647</v>
+      </c>
+      <c r="E509">
+        <f t="shared" si="0"/>
+        <v>0.86235101686063698</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B510">
+        <f t="shared" ref="B510:E510" si="1">B484/B497*100</f>
+        <v>12.623850023549366</v>
+      </c>
+      <c r="C510">
+        <f t="shared" si="1"/>
+        <v>21.825811340909578</v>
+      </c>
+      <c r="D510">
+        <f t="shared" si="1"/>
+        <v>0.32124843107164958</v>
+      </c>
+      <c r="E510">
+        <f t="shared" si="1"/>
+        <v>1.1138784212892971</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B511">
+        <f t="shared" ref="B511:E511" si="2">B485/B498*100</f>
+        <v>13.050556592962678</v>
+      </c>
+      <c r="C511">
+        <f t="shared" si="2"/>
+        <v>23.456596057845232</v>
+      </c>
+      <c r="D511">
+        <f t="shared" si="2"/>
+        <v>0.35750003848698902</v>
+      </c>
+      <c r="E511">
+        <f t="shared" si="2"/>
+        <v>1.0619337460308869</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B512">
+        <f t="shared" ref="B512:E512" si="3">B486/B499*100</f>
+        <v>12.50283381225062</v>
+      </c>
+      <c r="C512">
+        <f t="shared" si="3"/>
+        <v>23.899893260045605</v>
+      </c>
+      <c r="D512">
+        <f t="shared" si="3"/>
+        <v>0.45242600955263323</v>
+      </c>
+      <c r="E512">
+        <f t="shared" si="3"/>
+        <v>1.11888129558583</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B513">
+        <f t="shared" ref="B513:E513" si="4">B487/B500*100</f>
+        <v>12.866102733137316</v>
+      </c>
+      <c r="C513">
+        <f t="shared" si="4"/>
+        <v>25.019425925437648</v>
+      </c>
+      <c r="D513">
+        <f t="shared" si="4"/>
+        <v>0.87655271144255531</v>
+      </c>
+      <c r="E513">
+        <f t="shared" si="4"/>
+        <v>1.269865379215523</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B514">
+        <f t="shared" ref="B514:E514" si="5">B488/B501*100</f>
+        <v>15.911326574023885</v>
+      </c>
+      <c r="C514">
+        <f t="shared" si="5"/>
+        <v>27.835938340732973</v>
+      </c>
+      <c r="D514">
+        <f t="shared" si="5"/>
+        <v>1.118080391689467</v>
+      </c>
+      <c r="E514">
+        <f t="shared" si="5"/>
+        <v>1.3882028573006391</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B515">
+        <f t="shared" ref="B515:E515" si="6">B489/B502*100</f>
+        <v>15.591457509047709</v>
+      </c>
+      <c r="C515">
+        <f t="shared" si="6"/>
+        <v>23.018864651795866</v>
+      </c>
+      <c r="D515">
+        <f t="shared" si="6"/>
+        <v>1.3035754573790508</v>
+      </c>
+      <c r="E515">
+        <f t="shared" si="6"/>
+        <v>1.6905795292600592</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B516">
+        <f t="shared" ref="B516:E516" si="7">B490/B503*100</f>
+        <v>16.813229081526629</v>
+      </c>
+      <c r="C516">
+        <f t="shared" si="7"/>
+        <v>22.660176860162128</v>
+      </c>
+      <c r="D516">
+        <f t="shared" si="7"/>
+        <v>1.4233955982800934</v>
+      </c>
+      <c r="E516">
+        <f t="shared" si="7"/>
+        <v>2.4724007271617432</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B517">
+        <f t="shared" ref="B517:E517" si="8">B491/B504*100</f>
+        <v>15.51178774209351</v>
+      </c>
+      <c r="C517">
+        <f t="shared" si="8"/>
+        <v>24.375675726692027</v>
+      </c>
+      <c r="D517">
+        <f t="shared" si="8"/>
+        <v>1.4005848417458544</v>
+      </c>
+      <c r="E517">
+        <f t="shared" si="8"/>
+        <v>2.5488640050586602</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>8</v>
+      </c>
+      <c r="B521" t="s">
+        <v>2</v>
+      </c>
+      <c r="C521" t="s">
+        <v>3</v>
+      </c>
+      <c r="D521" t="s">
+        <v>4</v>
+      </c>
+      <c r="E521" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B522">
+        <v>102625.9402</v>
+      </c>
+      <c r="C522">
+        <v>742639.48219999997</v>
+      </c>
+      <c r="D522">
+        <v>10719.44735</v>
+      </c>
+      <c r="E522">
+        <v>101768.2984</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B523">
+        <v>92736.793250000002</v>
+      </c>
+      <c r="C523">
+        <v>615357.52529999998</v>
+      </c>
+      <c r="D523">
+        <v>7924.4600899999996</v>
+      </c>
+      <c r="E523">
+        <v>102051.72960000001</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B524">
+        <v>88265.467189999996</v>
+      </c>
+      <c r="C524">
+        <v>684706.46400000004</v>
+      </c>
+      <c r="D524">
+        <v>8195.3752700000005</v>
+      </c>
+      <c r="E524">
+        <v>123453.1378</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B525">
+        <v>85280.506789999999</v>
+      </c>
+      <c r="C525">
+        <v>775046.78260000004</v>
+      </c>
+      <c r="D525">
+        <v>8800.1345999999994</v>
+      </c>
+      <c r="E525">
+        <v>117846.7295</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B526">
+        <v>82799.608670000001</v>
+      </c>
+      <c r="C526">
+        <v>769402.76430000004</v>
+      </c>
+      <c r="D526">
+        <v>11721.095520000001</v>
+      </c>
+      <c r="E526">
+        <v>123193.9731</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B527">
+        <v>92489.6057</v>
+      </c>
+      <c r="C527">
+        <v>818802.7598</v>
+      </c>
+      <c r="D527">
+        <v>23514.372299999999</v>
+      </c>
+      <c r="E527">
+        <v>138956.34330000001</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B528">
+        <v>96082.132339999996</v>
+      </c>
+      <c r="C528">
+        <v>897231.6446</v>
+      </c>
+      <c r="D528">
+        <v>28322.224709999999</v>
+      </c>
+      <c r="E528">
+        <v>190304.644</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B529">
+        <v>98077.971789999996</v>
+      </c>
+      <c r="C529">
+        <v>706849.15</v>
+      </c>
+      <c r="D529">
+        <v>31839.10226</v>
+      </c>
+      <c r="E529">
+        <v>245931.4351</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B530">
+        <v>112169.64690000001</v>
+      </c>
+      <c r="C530">
+        <v>677502.46089999995</v>
+      </c>
+      <c r="D530">
+        <v>35996.442580000003</v>
+      </c>
+      <c r="E530">
+        <v>346412.83519999997</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B531">
+        <v>103493.28539999999</v>
+      </c>
+      <c r="C531">
+        <v>712704.46019999997</v>
+      </c>
+      <c r="D531">
+        <v>35635.383710000002</v>
+      </c>
+      <c r="E531">
+        <v>356634.82059999998</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>8</v>
+      </c>
+      <c r="B534" t="s">
+        <v>2</v>
+      </c>
+      <c r="C534" t="s">
+        <v>3</v>
+      </c>
+      <c r="D534" t="s">
+        <v>4</v>
+      </c>
+      <c r="E534" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B535">
+        <v>1333438.2879999999</v>
+      </c>
+      <c r="C535">
+        <v>7987683.9869999997</v>
+      </c>
+      <c r="D535">
+        <v>676800.9436</v>
+      </c>
+      <c r="E535">
+        <v>12054512.27</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B536">
+        <v>1336265.085</v>
+      </c>
+      <c r="C536">
+        <v>7995196.7419999996</v>
+      </c>
+      <c r="D536">
+        <v>664219.3946</v>
+      </c>
+      <c r="E536">
+        <v>11878785.050000001</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B537">
+        <v>1348219.9410000001</v>
+      </c>
+      <c r="C537">
+        <v>8035112.7319999998</v>
+      </c>
+      <c r="D537">
+        <v>655477.39659999998</v>
+      </c>
+      <c r="E537">
+        <v>12108417.68</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B538">
+        <v>1365544.0419999999</v>
+      </c>
+      <c r="C538">
+        <v>8208142.3260000004</v>
+      </c>
+      <c r="D538">
+        <v>653788.26210000005</v>
+      </c>
+      <c r="E538">
+        <v>11973320.039999999</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B539">
+        <v>1431808.905</v>
+      </c>
+      <c r="C539">
+        <v>8335521.1399999997</v>
+      </c>
+      <c r="D539">
+        <v>680525.26989999996</v>
+      </c>
+      <c r="E539">
+        <v>12054552.92</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B540">
+        <v>1478787.2409999999</v>
+      </c>
+      <c r="C540">
+        <v>8328202.6179999998</v>
+      </c>
+      <c r="D540">
+        <v>680850.89399999997</v>
+      </c>
+      <c r="E540">
+        <v>11544259.619999999</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B541">
+        <v>1530533.7479999999</v>
+      </c>
+      <c r="C541">
+        <v>8405214.6640000008</v>
+      </c>
+      <c r="D541">
+        <v>686024.71109999996</v>
+      </c>
+      <c r="E541">
+        <v>11988110.800000001</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B542">
+        <v>1571433.679</v>
+      </c>
+      <c r="C542">
+        <v>8450611.8499999996</v>
+      </c>
+      <c r="D542">
+        <v>714279.85459999996</v>
+      </c>
+      <c r="E542">
+        <v>12068165.68</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B543">
+        <v>1545075.838</v>
+      </c>
+      <c r="C543">
+        <v>8297581.9649999999</v>
+      </c>
+      <c r="D543">
+        <v>696094.17779999995</v>
+      </c>
+      <c r="E543">
+        <v>11761527.02</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B544">
+        <v>1454313.4569999999</v>
+      </c>
+      <c r="C544">
+        <v>8005515.051</v>
+      </c>
+      <c r="D544">
+        <v>670094.50639999995</v>
+      </c>
+      <c r="E544">
+        <v>11297410.59</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>8</v>
+      </c>
+      <c r="B547" t="s">
+        <v>2</v>
+      </c>
+      <c r="C547" t="s">
+        <v>3</v>
+      </c>
+      <c r="D547" t="s">
+        <v>4</v>
+      </c>
+      <c r="E547" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B548">
+        <f>(B535 - B522)/B535*100</f>
+        <v>92.303660310075031</v>
+      </c>
+      <c r="C548">
+        <f>(C535-C522)/C535*100</f>
+        <v>90.70269325365588</v>
+      </c>
+      <c r="D548">
+        <f>(D535 - D522)/D535*100</f>
+        <v>98.416159514645202</v>
+      </c>
+      <c r="E548">
+        <f>(E535-E522)/E535*100</f>
+        <v>99.155765939587042</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B549">
+        <f>(B536 - B523)/B536*100</f>
+        <v>93.06000027307455</v>
+      </c>
+      <c r="C549">
+        <f>(C536-C523)/C536*100</f>
+        <v>92.303409845220799</v>
+      </c>
+      <c r="D549">
+        <f>(D536 - D523)/D536*100</f>
+        <v>98.806951414784848</v>
+      </c>
+      <c r="E549">
+        <f>(E536-E523)/E536*100</f>
+        <v>99.140890847250418</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B550">
+        <f t="shared" ref="B550:B557" si="9">(B537 - B524)/B537*100</f>
+        <v>93.45318486206844</v>
+      </c>
+      <c r="C550">
+        <f t="shared" ref="C550:C557" si="10">(C537-C524)/C537*100</f>
+        <v>91.47857053363866</v>
+      </c>
+      <c r="D550">
+        <f t="shared" ref="D550:D557" si="11">(D537 - D524)/D537*100</f>
+        <v>98.749708943052823</v>
+      </c>
+      <c r="E550">
+        <f t="shared" ref="E550:E557" si="12">(E537-E524)/E537*100</f>
+        <v>98.980435420526391</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B551">
+        <f t="shared" si="9"/>
+        <v>93.754832933466091</v>
+      </c>
+      <c r="C551">
+        <f t="shared" si="10"/>
+        <v>90.557585969909766</v>
+      </c>
+      <c r="D551">
+        <f t="shared" si="11"/>
+        <v>98.653977883950759</v>
+      </c>
+      <c r="E551">
+        <f t="shared" si="12"/>
+        <v>99.015755620777682</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B552">
+        <f t="shared" si="9"/>
+        <v>94.217132720654504</v>
+      </c>
+      <c r="C552">
+        <f t="shared" si="10"/>
+        <v>90.769590150664541</v>
+      </c>
+      <c r="D552">
+        <f t="shared" si="11"/>
+        <v>98.277639929267821</v>
+      </c>
+      <c r="E552">
+        <f t="shared" si="12"/>
+        <v>98.978029513681875</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B553">
+        <f t="shared" si="9"/>
+        <v>93.745577244941884</v>
+      </c>
+      <c r="C553">
+        <f t="shared" si="10"/>
+        <v>90.168313652332415</v>
+      </c>
+      <c r="D553">
+        <f t="shared" si="11"/>
+        <v>96.546325706961611</v>
+      </c>
+      <c r="E553">
+        <f t="shared" si="12"/>
+        <v>98.796316542818701</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B554">
+        <f t="shared" si="9"/>
+        <v>93.722312071487892</v>
+      </c>
+      <c r="C554">
+        <f t="shared" si="10"/>
+        <v>89.325297681653595</v>
+      </c>
+      <c r="D554">
+        <f t="shared" si="11"/>
+        <v>95.871544530139886</v>
+      </c>
+      <c r="E554">
+        <f t="shared" si="12"/>
+        <v>98.412555179253104</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B555">
+        <f t="shared" si="9"/>
+        <v>93.758694808398587</v>
+      </c>
+      <c r="C555">
+        <f t="shared" si="10"/>
+        <v>91.635526958914809</v>
+      </c>
+      <c r="D555">
+        <f t="shared" si="11"/>
+        <v>95.542489116142022</v>
+      </c>
+      <c r="E555">
+        <f t="shared" si="12"/>
+        <v>97.962147341848564</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B556">
+        <f t="shared" si="9"/>
+        <v>92.740185035499849</v>
+      </c>
+      <c r="C556">
+        <f t="shared" si="10"/>
+        <v>91.834941025496704</v>
+      </c>
+      <c r="D556">
+        <f t="shared" si="11"/>
+        <v>94.828797061086405</v>
+      </c>
+      <c r="E556">
+        <f t="shared" si="12"/>
+        <v>97.054695069688321</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B557">
+        <f t="shared" si="9"/>
+        <v>92.883701591162549</v>
+      </c>
+      <c r="C557">
+        <f t="shared" si="10"/>
+        <v>91.097331581295663</v>
+      </c>
+      <c r="D557">
+        <f t="shared" si="11"/>
+        <v>94.682036135254009</v>
+      </c>
+      <c r="E557">
+        <f t="shared" si="12"/>
+        <v>96.84321625952343</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
